--- a/CashFlow/WORK_cashflow.xlsx
+++ b/CashFlow/WORK_cashflow.xlsx
@@ -350,19 +350,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-3411000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>9300000.0</v>
+        <v>63000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-17196000.0</v>
+        <v>24121000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>18152000.0</v>
+        <v>46177000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6600000.0</v>
+        <v>17879000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>12436000.0</v>
